--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.6308825</v>
+        <v>8.4153035</v>
       </c>
       <c r="H2">
-        <v>31.261765</v>
+        <v>16.830607</v>
       </c>
       <c r="I2">
-        <v>0.08061597743527854</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J2">
-        <v>0.05642173194834237</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N2">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O2">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P2">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q2">
-        <v>0.9860429607475</v>
+        <v>1.368457383753667</v>
       </c>
       <c r="R2">
-        <v>5.916257764485001</v>
+        <v>8.210744302522</v>
       </c>
       <c r="S2">
-        <v>0.05858463360308822</v>
+        <v>0.008305118467413991</v>
       </c>
       <c r="T2">
-        <v>0.04100237444989149</v>
+        <v>0.005809705081529465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.6308825</v>
+        <v>8.4153035</v>
       </c>
       <c r="H3">
-        <v>31.261765</v>
+        <v>16.830607</v>
       </c>
       <c r="I3">
-        <v>0.08061597743527854</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J3">
-        <v>0.05642173194834237</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N3">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O3">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P3">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q3">
-        <v>0.3708114255475001</v>
+        <v>7.378372607831167</v>
       </c>
       <c r="R3">
-        <v>2.224868553285</v>
+        <v>44.270235646987</v>
       </c>
       <c r="S3">
-        <v>0.02203134383219032</v>
+        <v>0.04477907703393322</v>
       </c>
       <c r="T3">
-        <v>0.01541935749845087</v>
+        <v>0.03132444557064175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.268178</v>
+        <v>8.4153035</v>
       </c>
       <c r="H4">
-        <v>75.804534</v>
+        <v>16.830607</v>
       </c>
       <c r="I4">
-        <v>0.130320144590595</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J4">
-        <v>0.1368132316846795</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N4">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O4">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P4">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q4">
-        <v>1.593992472774</v>
+        <v>1.834620316035</v>
       </c>
       <c r="R4">
-        <v>14.345932254966</v>
+        <v>11.00772189621</v>
       </c>
       <c r="S4">
-        <v>0.0947052701565388</v>
+        <v>0.01113424447723825</v>
       </c>
       <c r="T4">
-        <v>0.09942387731682877</v>
+        <v>0.007788772306163657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,48 +732,48 @@
         <v>25.268178</v>
       </c>
       <c r="H5">
-        <v>75.804534</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I5">
-        <v>0.130320144590595</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J5">
-        <v>0.1368132316846795</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.023723</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N5">
-        <v>0.07116900000000001</v>
+        <v>0.487846</v>
       </c>
       <c r="O5">
-        <v>0.2732875607676889</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P5">
-        <v>0.2732875607676888</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q5">
-        <v>0.5994369866940001</v>
+        <v>4.108993188195999</v>
       </c>
       <c r="R5">
-        <v>5.394932880246001</v>
+        <v>36.980938693764</v>
       </c>
       <c r="S5">
-        <v>0.03561487443405625</v>
+        <v>0.02493733134469885</v>
       </c>
       <c r="T5">
-        <v>0.03738935436785076</v>
+        <v>0.02616673221487335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.99944133333333</v>
+        <v>25.268178</v>
       </c>
       <c r="H6">
-        <v>116.998324</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I6">
-        <v>0.2011388725183283</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J6">
-        <v>0.2111604407215431</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.063083</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N6">
-        <v>0.189249</v>
+        <v>2.630341</v>
       </c>
       <c r="O6">
-        <v>0.7267124392323111</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P6">
-        <v>0.726712439232311</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q6">
-        <v>2.460201757630666</v>
+        <v>22.154641529566</v>
       </c>
       <c r="R6">
-        <v>22.141815818676</v>
+        <v>199.391773766094</v>
       </c>
       <c r="S6">
-        <v>0.1461701206722312</v>
+        <v>0.1344557197692438</v>
       </c>
       <c r="T6">
-        <v>0.1534529189461224</v>
+        <v>0.1410843351811887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.99944133333333</v>
+        <v>25.268178</v>
       </c>
       <c r="H7">
-        <v>116.998324</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I7">
-        <v>0.2011388725183283</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J7">
-        <v>0.2111604407215431</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.023723</v>
+        <v>0.21801</v>
       </c>
       <c r="N7">
-        <v>0.07116900000000001</v>
+        <v>0.65403</v>
       </c>
       <c r="O7">
-        <v>0.2732875607676889</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P7">
-        <v>0.2732875607676888</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q7">
-        <v>0.9251837467506667</v>
+        <v>5.508715485779999</v>
       </c>
       <c r="R7">
-        <v>8.326653720756001</v>
+        <v>49.57843937201999</v>
       </c>
       <c r="S7">
-        <v>0.05496875184609707</v>
+        <v>0.03343219544563938</v>
       </c>
       <c r="T7">
-        <v>0.05770752177542068</v>
+        <v>0.03508038985764692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>40.48325633333334</v>
+      </c>
+      <c r="H8">
+        <v>121.449769</v>
+      </c>
+      <c r="I8">
+        <v>0.3089337855705213</v>
+      </c>
+      <c r="J8">
+        <v>0.3241641027025684</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>11.9753255</v>
-      </c>
-      <c r="H8">
-        <v>23.950651</v>
-      </c>
-      <c r="I8">
-        <v>0.06176251214786597</v>
-      </c>
-      <c r="J8">
-        <v>0.04322651682367577</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N8">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O8">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P8">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q8">
-        <v>0.7554394585165001</v>
+        <v>6.583198223063778</v>
       </c>
       <c r="R8">
-        <v>4.532636751099</v>
+        <v>59.248784007574</v>
       </c>
       <c r="S8">
-        <v>0.04488358585609093</v>
+        <v>0.03995319239466778</v>
       </c>
       <c r="T8">
-        <v>0.03141324748044994</v>
+        <v>0.04192286945502795</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9753255</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H9">
-        <v>23.950651</v>
+        <v>121.449769</v>
       </c>
       <c r="I9">
-        <v>0.06176251214786597</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J9">
-        <v>0.04322651682367577</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N9">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O9">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P9">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q9">
-        <v>0.2840906468365</v>
+        <v>35.49492298235878</v>
       </c>
       <c r="R9">
-        <v>1.704543881019</v>
+        <v>319.454306841229</v>
       </c>
       <c r="S9">
-        <v>0.01687892629177505</v>
+        <v>0.2154174063876364</v>
       </c>
       <c r="T9">
-        <v>0.01181326934322582</v>
+        <v>0.226037401895696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.64038533333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H10">
-        <v>70.921156</v>
+        <v>121.449769</v>
       </c>
       <c r="I10">
-        <v>0.1219248350560686</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J10">
-        <v>0.1279996332036458</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N10">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O10">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P10">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q10">
-        <v>1.491306427982666</v>
+        <v>8.825754713230001</v>
       </c>
       <c r="R10">
-        <v>13.421757851844</v>
+        <v>79.43179241907001</v>
       </c>
       <c r="S10">
-        <v>0.08860429428659282</v>
+        <v>0.05356318678821712</v>
       </c>
       <c r="T10">
-        <v>0.09301892566626256</v>
+        <v>0.0562038313518445</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.64038533333333</v>
+        <v>10.0550545</v>
       </c>
       <c r="H11">
-        <v>70.921156</v>
+        <v>20.110109</v>
       </c>
       <c r="I11">
-        <v>0.1219248350560686</v>
+        <v>0.07673162517426207</v>
       </c>
       <c r="J11">
-        <v>0.1279996332036458</v>
+        <v>0.05367630990912667</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.023723</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N11">
-        <v>0.07116900000000001</v>
+        <v>0.487846</v>
       </c>
       <c r="O11">
-        <v>0.2732875607676889</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P11">
-        <v>0.2732875607676888</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q11">
-        <v>0.5608208612626667</v>
+        <v>1.635106039202334</v>
       </c>
       <c r="R11">
-        <v>5.047387751364001</v>
+        <v>9.810636235214</v>
       </c>
       <c r="S11">
-        <v>0.0333205407694758</v>
+        <v>0.00992339953262579</v>
       </c>
       <c r="T11">
-        <v>0.03498070753738324</v>
+        <v>0.006941746215535271</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.37889633333333</v>
+        <v>10.0550545</v>
       </c>
       <c r="H12">
-        <v>235.136689</v>
+        <v>20.110109</v>
       </c>
       <c r="I12">
-        <v>0.4042376582518636</v>
+        <v>0.07673162517426207</v>
       </c>
       <c r="J12">
-        <v>0.4243784456181135</v>
+        <v>0.05367630990912667</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.063083</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N12">
-        <v>0.189249</v>
+        <v>2.630341</v>
       </c>
       <c r="O12">
-        <v>0.7267124392323111</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P12">
-        <v>0.726712439232311</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q12">
-        <v>4.944375917395666</v>
+        <v>8.816074036194834</v>
       </c>
       <c r="R12">
-        <v>44.499383256561</v>
+        <v>52.89644421716901</v>
       </c>
       <c r="S12">
-        <v>0.2937645346577691</v>
+        <v>0.05350443510871556</v>
       </c>
       <c r="T12">
-        <v>0.3084010953727559</v>
+        <v>0.03742812215805245</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.37889633333333</v>
+        <v>10.0550545</v>
       </c>
       <c r="H13">
-        <v>235.136689</v>
+        <v>20.110109</v>
       </c>
       <c r="I13">
-        <v>0.4042376582518636</v>
+        <v>0.07673162517426207</v>
       </c>
       <c r="J13">
-        <v>0.4243784456181135</v>
+        <v>0.05367630990912667</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.023723</v>
+        <v>0.21801</v>
       </c>
       <c r="N13">
-        <v>0.07116900000000001</v>
+        <v>0.65403</v>
       </c>
       <c r="O13">
-        <v>0.2732875607676889</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P13">
-        <v>0.2732875607676888</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q13">
-        <v>1.859382557715667</v>
+        <v>2.192102431545</v>
       </c>
       <c r="R13">
-        <v>16.734443019441</v>
+        <v>13.15261458927</v>
       </c>
       <c r="S13">
-        <v>0.1104731235940944</v>
+        <v>0.01330379053292073</v>
       </c>
       <c r="T13">
-        <v>0.1159773502453575</v>
+        <v>0.009306441535538945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>32.434321</v>
+      </c>
+      <c r="H14">
+        <v>97.30296300000001</v>
+      </c>
+      <c r="I14">
+        <v>0.247511155882218</v>
+      </c>
+      <c r="J14">
+        <v>0.2597133609302807</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.487846</v>
+      </c>
+      <c r="O14">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P14">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q14">
+        <v>5.274317920855334</v>
+      </c>
+      <c r="R14">
+        <v>47.468861287698</v>
+      </c>
+      <c r="S14">
+        <v>0.03200964508471186</v>
+      </c>
+      <c r="T14">
+        <v>0.03358770830956801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>32.434321</v>
+      </c>
+      <c r="H15">
+        <v>97.30296300000001</v>
+      </c>
+      <c r="I15">
+        <v>0.247511155882218</v>
+      </c>
+      <c r="J15">
+        <v>0.2597133609302807</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.630341</v>
+      </c>
+      <c r="O15">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P15">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q15">
+        <v>28.43777477782034</v>
+      </c>
+      <c r="R15">
+        <v>255.939973000383</v>
+      </c>
+      <c r="S15">
+        <v>0.1725878286626642</v>
+      </c>
+      <c r="T15">
+        <v>0.181096342416864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>32.434321</v>
+      </c>
+      <c r="H16">
+        <v>97.30296300000001</v>
+      </c>
+      <c r="I16">
+        <v>0.247511155882218</v>
+      </c>
+      <c r="J16">
+        <v>0.2597133609302807</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.21801</v>
+      </c>
+      <c r="N16">
+        <v>0.65403</v>
+      </c>
+      <c r="O16">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P16">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q16">
+        <v>7.071006321210001</v>
+      </c>
+      <c r="R16">
+        <v>63.63905689089</v>
+      </c>
+      <c r="S16">
+        <v>0.04291368213484193</v>
+      </c>
+      <c r="T16">
+        <v>0.04502931020384868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>14.38574166666667</v>
+      </c>
+      <c r="H17">
+        <v>43.157225</v>
+      </c>
+      <c r="I17">
+        <v>0.1097797468348313</v>
+      </c>
+      <c r="J17">
+        <v>0.1151918462459805</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.487846</v>
+      </c>
+      <c r="O17">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P17">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q17">
+        <v>2.339342176372222</v>
+      </c>
+      <c r="R17">
+        <v>21.05407958735</v>
+      </c>
+      <c r="S17">
+        <v>0.01419738322964588</v>
+      </c>
+      <c r="T17">
+        <v>0.01489730877723011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.38574166666667</v>
+      </c>
+      <c r="H18">
+        <v>43.157225</v>
+      </c>
+      <c r="I18">
+        <v>0.1097797468348313</v>
+      </c>
+      <c r="J18">
+        <v>0.1151918462459805</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.630341</v>
+      </c>
+      <c r="O18">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P18">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q18">
+        <v>12.61313537374722</v>
+      </c>
+      <c r="R18">
+        <v>113.518218363725</v>
+      </c>
+      <c r="S18">
+        <v>0.07654866331106533</v>
+      </c>
+      <c r="T18">
+        <v>0.08032248305081566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.38574166666667</v>
+      </c>
+      <c r="H19">
+        <v>43.157225</v>
+      </c>
+      <c r="I19">
+        <v>0.1097797468348313</v>
+      </c>
+      <c r="J19">
+        <v>0.1151918462459805</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.21801</v>
+      </c>
+      <c r="N19">
+        <v>0.65403</v>
+      </c>
+      <c r="O19">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P19">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q19">
+        <v>3.13623554075</v>
+      </c>
+      <c r="R19">
+        <v>28.22611986675</v>
+      </c>
+      <c r="S19">
+        <v>0.01903370029412006</v>
+      </c>
+      <c r="T19">
+        <v>0.01997205441793477</v>
       </c>
     </row>
   </sheetData>
